--- a/PxM_PPC_RL/visuals/Analysis.xlsx
+++ b/PxM_PPC_RL/visuals/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w_kevi02\sciebo\PhD\01 Prescriptive Maintenance\30 RQ3 - Digital Twin\PxM &amp; PPC (R)\RL-PxM\PxM_PPC_RL\visuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1753B8-184D-4555-93A9-593FA1C869D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB95A6AB-F4C4-4407-8175-ED80AEF2111C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -73,30 +73,12 @@
     <t>DQN</t>
   </si>
   <si>
-    <t>PPO_DIAG_model.zip; PPO_ID_lookup_data.xlsx; tsne.html; tsne_files; PPO_raw_data.xlsx; PPO_rollout_ep_rew_mean.csv; PPO_state_action.xlsx; tensorboard/PPO_DIAG_model_2</t>
-  </si>
-  <si>
-    <t>tensorboard\DQN_REACT_model_3; best_DQN_reactive.zip</t>
-  </si>
-  <si>
-    <t>DQN_ID_lookup_data.xlsx; DQN_raw_data.xlsx; DQN_rollout_ep_rew_mean.csv; DQN_state_action.xlsx</t>
-  </si>
-  <si>
-    <t>best_A2C_predhealth.zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2C_rollout_ep_rew_mean.csv; A2C_DIAG_model.zip; best_A2C_2_predhealth.zip; tensorboard/A2C_DIAG_model_4 </t>
-  </si>
-  <si>
     <t>A2C_2</t>
   </si>
   <si>
     <t>Reactive</t>
   </si>
   <si>
-    <t>best_PPO_reactive.zip</t>
-  </si>
-  <si>
     <t>True Health</t>
   </si>
   <si>
@@ -112,17 +94,80 @@
     <t xml:space="preserve">True Health, gamma = 0.99, learning_rate=0.01 </t>
   </si>
   <si>
-    <t>best_DQN_truehealth.zip</t>
-  </si>
-  <si>
-    <t>best_PPO_truehealth.zip</t>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>9.zip;  tensorboard\9</t>
+  </si>
+  <si>
+    <t>Reactive, w/o condition/health knowledge</t>
+  </si>
+  <si>
+    <t>6_rew.csv; 6.zip; tensorboard/6</t>
+  </si>
+  <si>
+    <t>8.zip</t>
+  </si>
+  <si>
+    <t>7.zip</t>
+  </si>
+  <si>
+    <t>tensorboard\5; 5.zip</t>
+  </si>
+  <si>
+    <t>3.zip</t>
+  </si>
+  <si>
+    <t>4_ID.xlsx; tsne.html; tsne_files; 4_raw.xlsx; 4_rew.csv; 4_state_action.xlsx; tensorboard/4</t>
+  </si>
+  <si>
+    <t>2_ID.xlsx; 2_raw.xlsx; 2_rew.csv; 2_state_action.xlsx</t>
+  </si>
+  <si>
+    <t>1.zip</t>
+  </si>
+  <si>
+    <t>tensorboard\10; 10.zip</t>
+  </si>
+  <si>
+    <t>Reactive, gamma = 0.99, learning_rate=0.01, w/o condition/health knowledge</t>
+  </si>
+  <si>
+    <t>tensorboard\11; 11.zip</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Reactive, simple produce = order heuristic (action = obs[0]), MTBF = 22.352</t>
+  </si>
+  <si>
+    <t>Scheduled heuristic, MTBF = 22.352, MTBF*0.9-1: action = order + spare part, MTBF*0.9: action = maintain, else: action = order</t>
+  </si>
+  <si>
+    <t>Scheduled heuristic, MTBF = 22.352, MTBF*0.85-1: action = order + spare part, MTBF*0.85: action = maintain, else: action = order</t>
+  </si>
+  <si>
+    <t>Prognostics with exponential intensity</t>
+  </si>
+  <si>
+    <t>Training Time</t>
+  </si>
+  <si>
+    <t>06:34:35.6</t>
+  </si>
+  <si>
+    <t>tensorboard\15; 15.zip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +179,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,10 +216,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -449,283 +506,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="10" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="12" width="73.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44655</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>3.99</v>
+      </c>
+      <c r="H2">
+        <v>1.34</v>
+      </c>
+      <c r="I2">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="J2">
+        <v>487</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44706</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>0.34</v>
+      </c>
+      <c r="G3">
+        <v>3.67</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>6.99</v>
+      </c>
+      <c r="J3">
+        <v>313</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44714</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>4.01</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>177</v>
+      </c>
+      <c r="I4">
+        <v>0.06</v>
+      </c>
+      <c r="J4">
+        <v>-2788</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44715</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G5">
+        <v>4.2859999999999996</v>
+      </c>
+      <c r="H5">
+        <v>35.796999999999997</v>
+      </c>
+      <c r="I5">
+        <v>9.3420000000000005</v>
+      </c>
+      <c r="J5">
+        <v>442.92899999999997</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44715</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>3.19</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>-872</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>44716</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>0.752</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>109.259</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>-1274.5909999999999</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44719</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>27.901</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>-908.08900000000006</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44719</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G9">
+        <v>3.996</v>
+      </c>
+      <c r="H9">
+        <v>36.936999999999998</v>
+      </c>
+      <c r="I9">
+        <v>10.484999999999999</v>
+      </c>
+      <c r="J9">
+        <v>461.476</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44725</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="D2">
-        <v>0.752</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>109.259</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>-1274.5909999999999</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44715</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F10">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>33.741</v>
+      </c>
+      <c r="I10">
+        <v>21.504000000000001</v>
+      </c>
+      <c r="J10">
+        <v>-1929.77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B11" s="5">
+        <v>44725</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="D3">
-        <v>1.4E-2</v>
-      </c>
-      <c r="E3">
-        <v>4.2859999999999996</v>
-      </c>
-      <c r="F3">
-        <v>35.796999999999997</v>
-      </c>
-      <c r="G3">
-        <v>9.3420000000000005</v>
-      </c>
-      <c r="H3">
-        <v>442.92899999999997</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="F11">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>24.635999999999999</v>
+      </c>
+      <c r="I11">
+        <v>81.677000000000007</v>
+      </c>
+      <c r="J11">
+        <v>-1395.2660000000001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44725</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1.931</v>
+      </c>
+      <c r="I12">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J12">
+        <v>-1677.8810000000001</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44715</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <v>3.19</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.3</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>-136</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="B13" s="1">
+        <v>44726</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>3.99</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>-2612.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44706</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>0.34</v>
-      </c>
-      <c r="E5">
-        <v>3.67</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>6.99</v>
-      </c>
-      <c r="H5">
-        <v>313</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="B14" s="1">
+        <v>44726</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G14">
+        <v>3.9510000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>3.9510000000000001</v>
+      </c>
+      <c r="J14">
+        <v>427.27499999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44714</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>4.01</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>177</v>
-      </c>
-      <c r="G6">
-        <v>0.06</v>
-      </c>
-      <c r="H6">
-        <v>-2788</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="B15" s="1">
+        <v>44726</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G15">
+        <v>4.9960000000000004</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>4.9960000000000004</v>
+      </c>
+      <c r="J15">
+        <v>382.464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44719</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B16" s="5">
+        <v>44742</v>
+      </c>
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>27.901</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>-908.08900000000006</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44719</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E8">
-        <v>3.996</v>
-      </c>
-      <c r="F8">
-        <v>36.936999999999998</v>
-      </c>
-      <c r="G8">
-        <v>10.484999999999999</v>
-      </c>
-      <c r="H8">
-        <v>461.476</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44655</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>0.01</v>
-      </c>
-      <c r="E9">
-        <v>3.99</v>
-      </c>
-      <c r="F9">
-        <v>1.34</v>
-      </c>
-      <c r="G9">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="H9">
-        <v>487</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
+      <c r="D16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K10">
+    <sortCondition ref="B1:B10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/PxM_PPC_RL/visuals/Analysis.xlsx
+++ b/PxM_PPC_RL/visuals/Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w_kevi02\sciebo\PhD\01 Prescriptive Maintenance\30 RQ3 - Digital Twin\PxM &amp; PPC (R)\RL-PxM\PxM_PPC_RL\visuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB95A6AB-F4C4-4407-8175-ED80AEF2111C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB8EB8F-7764-4975-A8BD-8EAC186F2C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -82,12 +82,6 @@
     <t>True Health</t>
   </si>
   <si>
-    <t>Prognostics</t>
-  </si>
-  <si>
-    <t>Prognostics, gamma = 0.99, learning_rate=0.01</t>
-  </si>
-  <si>
     <t>Reactive, gamma = 0.99, learning_rate=0.01</t>
   </si>
   <si>
@@ -148,16 +142,85 @@
     <t>Scheduled heuristic, MTBF = 22.352, MTBF*0.85-1: action = order + spare part, MTBF*0.85: action = maintain, else: action = order</t>
   </si>
   <si>
-    <t>Prognostics with exponential intensity</t>
-  </si>
-  <si>
     <t>Training Time</t>
   </si>
   <si>
-    <t>06:34:35.6</t>
-  </si>
-  <si>
     <t>tensorboard\15; 15.zip</t>
+  </si>
+  <si>
+    <t>Diagnostics with exponential intensity</t>
+  </si>
+  <si>
+    <t>Diagnostics</t>
+  </si>
+  <si>
+    <t>Diagnostics, gamma = 0.99, learning_rate=0.01</t>
+  </si>
+  <si>
+    <t>Prognostics with Process Noise 0.1</t>
+  </si>
+  <si>
+    <t>Prognostics with Process Noise 0.0</t>
+  </si>
+  <si>
+    <t>Prognostics with Process Noise 0.2</t>
+  </si>
+  <si>
+    <t>Prognostics with Process Noise 0.3</t>
+  </si>
+  <si>
+    <t>Prognostics with Process Noise 0.4</t>
+  </si>
+  <si>
+    <t>Prognostics with Process Noise 0.5</t>
+  </si>
+  <si>
+    <t>Prognostics with Process Noise 0.6</t>
+  </si>
+  <si>
+    <t>Prognostics with Process Noise 0.7</t>
+  </si>
+  <si>
+    <t>Prognostics with Process Noise 0.8</t>
+  </si>
+  <si>
+    <t>Prognostics with Process Noise 0.9</t>
+  </si>
+  <si>
+    <t>Prognostics with Process Noise 0.10</t>
+  </si>
+  <si>
+    <t>tensorboard\PPO_pn0_mn0_1; pn0_mn0\best_model.zip</t>
+  </si>
+  <si>
+    <t>tensorboard\PPO_pn1_mn0_1; pn1_mn0\best_model.zip</t>
+  </si>
+  <si>
+    <t>tensorboard\PPO_pn2_mn0_1; pn2_mn0\best_model.zip</t>
+  </si>
+  <si>
+    <t>tensorboard\PPO_pn3_mn0_1; pn3_mn0\best_model.zip</t>
+  </si>
+  <si>
+    <t>tensorboard\PPO_pn4_mn0_1; pn4_mn0\best_model.zip</t>
+  </si>
+  <si>
+    <t>tensorboard\PPO_pn5_mn0_1; pn5_mn0\best_model.zip</t>
+  </si>
+  <si>
+    <t>tensorboard\PPO_pn6_mn0_1; pn6_mn0\best_model.zip</t>
+  </si>
+  <si>
+    <t>tensorboard\PPO_pn7_mn0_1; pn7_mn0\best_model.zip</t>
+  </si>
+  <si>
+    <t>tensorboard\PPO_pn8_mn0_1; pn8_mn0\best_model.zip</t>
+  </si>
+  <si>
+    <t>tensorboard\PPO_pn9_mn0_1; pn9_mn0\best_model.zip</t>
+  </si>
+  <si>
+    <t>tensorboard\PPO_pn10_mn0_1; pn10_mn0\best_model.zip</t>
   </si>
 </sst>
 </file>
@@ -167,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +248,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -216,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -226,6 +295,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -506,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +597,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -534,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -569,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -587,7 +659,7 @@
         <v>487</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -601,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>0.34</v>
@@ -619,7 +691,7 @@
         <v>313</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -633,7 +705,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>4.01</v>
@@ -651,7 +723,7 @@
         <v>-2788</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -665,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>1.4E-2</v>
@@ -683,7 +755,7 @@
         <v>442.92899999999997</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -697,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>3.19</v>
@@ -715,7 +787,7 @@
         <v>-872</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -729,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>0.752</v>
@@ -747,7 +819,7 @@
         <v>-1274.5909999999999</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -779,7 +851,7 @@
         <v>-908.08900000000006</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -811,7 +883,7 @@
         <v>461.476</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -825,7 +897,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <v>1.9650000000000001</v>
@@ -843,7 +915,7 @@
         <v>-1929.77</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -857,7 +929,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11">
         <v>0.47199999999999998</v>
@@ -875,7 +947,7 @@
         <v>-1395.2660000000001</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -890,7 +962,7 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -908,7 +980,7 @@
         <v>-1677.8810000000001</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -919,10 +991,10 @@
         <v>44726</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13">
         <v>3.99</v>
@@ -948,10 +1020,10 @@
         <v>44726</v>
       </c>
       <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
         <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
       </c>
       <c r="F14">
         <v>4.9000000000000002E-2</v>
@@ -977,10 +1049,10 @@
         <v>44726</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <v>4.0000000000000001E-3</v>
@@ -1008,20 +1080,389 @@
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>39</v>
+      <c r="D16" s="8">
+        <v>0.27401620370370372</v>
       </c>
       <c r="E16" t="s">
         <v>37</v>
       </c>
       <c r="K16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9">
+        <v>3.0026273148148146</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>4.0039999999999996</v>
+      </c>
+      <c r="H17">
+        <v>30.811</v>
+      </c>
+      <c r="I17">
+        <v>17.661000000000001</v>
+      </c>
+      <c r="J17">
+        <v>451.20600000000002</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" t="s">
         <v>40</v>
+      </c>
+      <c r="F18">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G18">
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="H18">
+        <v>24.373999999999999</v>
+      </c>
+      <c r="I18">
+        <v>13.874000000000001</v>
+      </c>
+      <c r="J18">
+        <v>469.71199999999999</v>
+      </c>
+      <c r="K18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>0.124</v>
+      </c>
+      <c r="G19">
+        <v>4.0510000000000002</v>
+      </c>
+      <c r="H19">
+        <v>34.161000000000001</v>
+      </c>
+      <c r="I19">
+        <v>7.6379999999999999</v>
+      </c>
+      <c r="J19">
+        <v>397.46800000000002</v>
+      </c>
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>0.187</v>
+      </c>
+      <c r="G20">
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="H20">
+        <v>38.988</v>
+      </c>
+      <c r="I20">
+        <v>10.63</v>
+      </c>
+      <c r="J20">
+        <v>354.601</v>
+      </c>
+      <c r="K20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="G21">
+        <v>4.6669999999999998</v>
+      </c>
+      <c r="H21">
+        <v>44.912999999999997</v>
+      </c>
+      <c r="I21">
+        <v>13.608000000000001</v>
+      </c>
+      <c r="J21">
+        <v>354.79399999999998</v>
+      </c>
+      <c r="K21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G22">
+        <v>4.9859999999999998</v>
+      </c>
+      <c r="H22">
+        <v>40.731000000000002</v>
+      </c>
+      <c r="I22">
+        <v>11.762</v>
+      </c>
+      <c r="J22">
+        <v>296.06799999999998</v>
+      </c>
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="G23">
+        <v>5.0469999999999997</v>
+      </c>
+      <c r="H23">
+        <v>20.812000000000001</v>
+      </c>
+      <c r="I23">
+        <v>12.672000000000001</v>
+      </c>
+      <c r="J23">
+        <v>215.816</v>
+      </c>
+      <c r="K23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="G24">
+        <v>4.9409999999999998</v>
+      </c>
+      <c r="H24">
+        <v>32.271999999999998</v>
+      </c>
+      <c r="I24">
+        <v>12.259</v>
+      </c>
+      <c r="J24">
+        <v>93.632999999999996</v>
+      </c>
+      <c r="K24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="G25">
+        <v>5.3710000000000004</v>
+      </c>
+      <c r="H25">
+        <v>61.511000000000003</v>
+      </c>
+      <c r="I25">
+        <v>27.81</v>
+      </c>
+      <c r="J25">
+        <v>-28.305</v>
+      </c>
+      <c r="K25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="G26">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="H26">
+        <v>2.0569999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.82</v>
+      </c>
+      <c r="J26">
+        <v>-1060.8399999999999</v>
+      </c>
+      <c r="K26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>0.189</v>
+      </c>
+      <c r="G27">
+        <v>2.6459999999999999</v>
+      </c>
+      <c r="H27">
+        <v>15.191000000000001</v>
+      </c>
+      <c r="I27">
+        <v>15.521000000000001</v>
+      </c>
+      <c r="J27">
+        <v>-651.09100000000001</v>
+      </c>
+      <c r="K27" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K10">
     <sortCondition ref="B1:B10"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="D17:D27"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/PxM_PPC_RL/visuals/Analysis.xlsx
+++ b/PxM_PPC_RL/visuals/Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w_kevi02\sciebo\PhD\01 Prescriptive Maintenance\30 RQ3 - Digital Twin\PxM &amp; PPC (R)\RL-PxM\PxM_PPC_RL\visuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB8EB8F-7764-4975-A8BD-8EAC186F2C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528C2D70-433E-4B86-B965-CFDD057F5557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Scheduled heuristic, MTBF = 22.352, MTBF*0.85-1: action = order + spare part, MTBF*0.85: action = maintain, else: action = order</t>
   </si>
   <si>
-    <t>Training Time</t>
-  </si>
-  <si>
     <t>tensorboard\15; 15.zip</t>
   </si>
   <si>
@@ -221,6 +218,52 @@
   </si>
   <si>
     <t>tensorboard\PPO_pn10_mn0_1; pn10_mn0\best_model.zip</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 0, production levels l = 6, demand = N((l-1)*0.6, (l-1)*0.3), fc = 1, maintenance_c = 200, repair_c = 500, backorder_c = 40, self.order_r = 40, holding_c = 20, spare_part_order_c = 40, spare_part_holding_c = 40, sp_emergency_order_c = 300</t>
+  </si>
+  <si>
+    <t>tensorbard\DQN_fc1_l6__pn0_mn0_3</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>tensorbard\DQN_fc1_l6_pn0_mn0_2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BUG FIX: REVENUE WAS NOT CALCULATED WHEN BACKORDER! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diagnostics with process noise 0, production levels l = 6, demand = N((l-1)*0.6, (l-1)*0.3), fc = 1, maintenance_c = 200, repair_c = 500, backorder_c = 40, self.order_r = 40, holding_c = 20, spare_part_order_c = 40, spare_part_holding_c = 40, sp_emergency_order_c = 300</t>
+    </r>
+  </si>
+  <si>
+    <t>Timesteps</t>
+  </si>
+  <si>
+    <t>Train t</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 0, production levels l = 6, demand = N((l-1)*0.6, (l-1)*0.3), fc = 0, maintenance_c = 200, repair_c = 500, backorder_c = 40, self.order_r = 40, holding_c = 20, spare_part_order_c = 40, spare_part_holding_c = 40, sp_emergency_order_c = 300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -230,7 +273,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +297,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -295,9 +345,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -578,24 +632,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="12" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="73.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -606,31 +665,43 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -640,29 +711,29 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.01</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3.99</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.34</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8.5399999999999991</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>487</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -672,29 +743,29 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3">
         <v>0.34</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3.67</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6.99</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>313</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -704,29 +775,29 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4">
         <v>4.01</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>177</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.06</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-2788</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -736,29 +807,29 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5">
         <v>1.4E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4.2859999999999996</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>35.796999999999997</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>9.3420000000000005</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>442.92899999999997</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -768,29 +839,29 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3.19</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>0.3</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>-872</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -800,29 +871,29 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
         <v>0.752</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>109.259</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>-1274.5909999999999</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -832,29 +903,29 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>27.901</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>-908.08900000000006</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -864,29 +935,29 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3.996</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>36.936999999999998</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>10.484999999999999</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>461.476</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -896,29 +967,29 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.9650000000000001</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>33.741</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>21.504000000000001</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-1929.77</v>
       </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -928,29 +999,29 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.47199999999999998</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>24.635999999999999</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>81.677000000000007</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-1395.2660000000001</v>
       </c>
-      <c r="K11" t="s">
+      <c r="O11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -961,29 +1032,30 @@
         <v>11</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>1.931</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.13500000000000001</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-1677.8810000000001</v>
       </c>
-      <c r="K12" t="s">
+      <c r="O12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -993,15 +1065,12 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>32</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3.99</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
         <v>0</v>
       </c>
@@ -1009,10 +1078,13 @@
         <v>0</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>-2612.16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1022,26 +1094,26 @@
       <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>33</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3.9510000000000001</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>3.9510000000000001</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>427.27499999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1051,26 +1123,26 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>34</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>4.9960000000000004</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>4.9960000000000004</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>382.464</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1080,17 +1152,17 @@
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="8">
+      <c r="E16" s="8">
         <v>0.27401620370370372</v>
       </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="F16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1100,32 +1172,32 @@
       <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="9">
+      <c r="E17" s="10">
         <v>3.0026273148148146</v>
       </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="F17" t="s">
+        <v>40</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>4.0039999999999996</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>30.811</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>17.661000000000001</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>451.20600000000002</v>
       </c>
-      <c r="K17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1135,30 +1207,30 @@
       <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="10"/>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>4.0419999999999998</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>24.373999999999999</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>13.874000000000001</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>469.71199999999999</v>
       </c>
-      <c r="K18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1168,30 +1240,30 @@
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="10"/>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19">
         <v>0.124</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>4.0510000000000002</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>34.161000000000001</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>7.6379999999999999</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>397.46800000000002</v>
       </c>
-      <c r="K19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1201,30 +1273,30 @@
       <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="10"/>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20">
         <v>0.187</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>4.3179999999999996</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>38.988</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>10.63</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>354.601</v>
       </c>
-      <c r="K20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1234,30 +1306,30 @@
       <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="10"/>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21">
         <v>0.14699999999999999</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>4.6669999999999998</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>44.912999999999997</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>13.608000000000001</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>354.79399999999998</v>
       </c>
-      <c r="K21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1267,30 +1339,30 @@
       <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="10"/>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22">
         <v>0.20499999999999999</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>4.9859999999999998</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>40.731000000000002</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>11.762</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>296.06799999999998</v>
       </c>
-      <c r="K22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1300,30 +1372,30 @@
       <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="10"/>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23">
         <v>0.27800000000000002</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>5.0469999999999997</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>20.812000000000001</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>12.672000000000001</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>215.816</v>
       </c>
-      <c r="K23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1333,30 +1405,30 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="10"/>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24">
         <v>0.42899999999999999</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>4.9409999999999998</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>32.271999999999998</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>12.259</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>93.632999999999996</v>
       </c>
-      <c r="K24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1366,30 +1438,30 @@
       <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="10"/>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25">
         <v>0.56299999999999994</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>5.3710000000000004</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>61.511000000000003</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>27.81</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-28.305</v>
       </c>
-      <c r="K25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1399,30 +1471,30 @@
       <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26">
+      <c r="E26" s="10"/>
+      <c r="F26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26">
         <v>0.21299999999999999</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.80200000000000005</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2.0569999999999999</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.82</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-1060.8399999999999</v>
       </c>
-      <c r="K26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1432,35 +1504,146 @@
       <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="10"/>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27">
         <v>0.189</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2.6459999999999999</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>15.191000000000001</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>15.521000000000001</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-651.09100000000001</v>
       </c>
-      <c r="K27" t="s">
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44860</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.13714120370370372</v>
+      </c>
+      <c r="F28" t="s">
         <v>61</v>
       </c>
+      <c r="G28">
+        <v>2.97</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>154.02000000000001</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>748.65</v>
+      </c>
+      <c r="N28">
+        <v>10921.45</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44860</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.26368055555555553</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29">
+        <v>0.13</v>
+      </c>
+      <c r="H29">
+        <v>3.22</v>
+      </c>
+      <c r="I29">
+        <v>77.463300000000004</v>
+      </c>
+      <c r="J29">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="K29">
+        <v>1490.751</v>
+      </c>
+      <c r="L29" s="13">
+        <v>-436.17950000000002</v>
+      </c>
+      <c r="M29" s="13">
+        <v>1732.547835743</v>
+      </c>
+      <c r="N29">
+        <v>2712.989</v>
+      </c>
+      <c r="O29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44861</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="11">
+        <v>500000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="M30" s="13">
+        <v>658.248999999999</v>
+      </c>
+      <c r="N30">
+        <v>2736.6979999999999</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:O10">
     <sortCondition ref="B1:B10"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="D17:D27"/>
+    <mergeCell ref="E17:E27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
